--- a/specjalisci.xlsx
+++ b/specjalisci.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tp/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB965715-E089-E44B-A7D3-0B234EAD6EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508539A7-D1D8-484F-866C-06F38A8C4BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12280" yWindow="6500" windowWidth="27440" windowHeight="16240" xr2:uid="{82DCD180-5F08-8E48-BEB5-80ACAF42A6AE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Specjaliści" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
